--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karol\git\IPS\CentroDeportivo\DDBB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo244965\Downloads\proyecto\IPS\CentroDeportivo\DDBB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -202,13 +202,22 @@
   </si>
   <si>
     <t>SOCIO</t>
+  </si>
+  <si>
+    <t>ASISTIDO</t>
+  </si>
+  <si>
+    <t>HORA_ENTRADA</t>
+  </si>
+  <si>
+    <t>HORA_SALIDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +245,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -402,15 +426,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,6 +450,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,33 +737,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:K46"/>
+  <dimension ref="A5:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:11">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="G5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -891,10 +919,10 @@
       <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11">
       <c r="G14" s="12" t="s">
@@ -906,8 +934,8 @@
       <c r="I14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11">
       <c r="G15" s="14" t="s">
@@ -919,22 +947,31 @@
       <c r="I15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="30" t="s">
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G16" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B17" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="G17" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="G17" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -947,20 +984,8 @@
       <c r="D18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
@@ -970,15 +995,13 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="H19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
@@ -986,15 +1009,20 @@
         <v>8</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="G20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
@@ -1002,8 +1030,15 @@
         <v>22</v>
       </c>
       <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="H21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="B22" s="16" t="s">
         <v>40</v>
       </c>
@@ -1013,34 +1048,23 @@
       <c r="D22" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="G24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="30" t="s">
+      <c r="H22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B25" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1053,17 +1077,13 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="H26" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
@@ -1071,15 +1091,20 @@
         <v>8</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="G27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
@@ -1087,15 +1112,17 @@
         <v>45</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="G28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="H28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
@@ -1105,15 +1132,15 @@
       <c r="D29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="H29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
@@ -1123,15 +1150,15 @@
       <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="H30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="B31" s="16" t="s">
         <v>48</v>
       </c>
@@ -1141,44 +1168,51 @@
       <c r="D31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="H31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="H32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1">
+      <c r="H33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="I33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="J33" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="G32" s="5" t="s">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B34" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="I34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="G33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1191,8 +1225,15 @@
       <c r="D35" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="H35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="B36" s="5" t="s">
         <v>53</v>
       </c>
@@ -1202,13 +1243,8 @@
       <c r="D36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1">
       <c r="B37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1218,17 +1254,8 @@
       <c r="D37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
@@ -1238,17 +1265,13 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="H38" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
         <v>55</v>
       </c>
@@ -1256,11 +1279,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="F39" s="40"/>
+      <c r="H39" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1">
       <c r="B40" s="5" t="s">
         <v>56</v>
       </c>
@@ -1268,11 +1298,17 @@
         <v>8</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="H40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
@@ -1280,11 +1316,15 @@
         <v>8</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="H41" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -1292,13 +1332,11 @@
         <v>8</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="G42" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="B43" s="16" t="s">
         <v>60</v>
       </c>
@@ -1308,57 +1346,64 @@
       <c r="D43" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
+      <c r="H44" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="H45" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="26" t="s">
+      <c r="I45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="G44" s="18" t="s">
+    <row r="46" spans="1:10">
+      <c r="H46" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="24" t="s">
+      <c r="I46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="G45" s="21" t="s">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
+      <c r="H47" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="25" t="s">
+      <c r="I47" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J13:K15"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>SOCIO</t>
+  </si>
+  <si>
+    <t>HORA_IENTRADA</t>
+  </si>
+  <si>
+    <t>HORA_SALIDA</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -402,14 +408,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +435,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:K46"/>
+  <dimension ref="A5:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="G16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -727,16 +740,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:11">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="G5" s="30" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="G5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -891,10 +904,10 @@
       <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11">
       <c r="G14" s="12" t="s">
@@ -906,331 +919,318 @@
       <c r="I14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="H15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="30" t="s">
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="G16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:11">
+      <c r="B19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="G17" s="30" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="G19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="5" t="s">
+      <c r="H20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="5" t="s">
+      <c r="H21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="G20" s="16" t="s">
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="G22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="5" t="s">
+      <c r="H22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="16" t="s">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="G24" s="27" t="s">
+      <c r="D24" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="G26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="30" t="s">
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="F25" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="F27" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="5" t="s">
+      <c r="H28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="G27" s="5" t="s">
+      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="5" t="s">
+      <c r="H29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="G28" s="5" t="s">
+      <c r="D30" s="7"/>
+      <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="5" t="s">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="D31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="5" t="s">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="C32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="16" t="s">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="C33" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I33" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="G32" s="5" t="s">
+    <row r="34" spans="1:9">
+      <c r="G34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="H34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="G33" s="9" t="s">
+    <row r="35" spans="1:9">
+      <c r="G35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="30" t="s">
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>8</v>
@@ -1238,127 +1238,163 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="G38" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="33"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
+      <c r="D39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="D40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="G42" s="33" t="s">
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="G44" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="16" t="s">
+      <c r="H44" s="32"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="19" t="s">
+      <c r="D45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="26" t="s">
+      <c r="H45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="G44" s="18" t="s">
+    <row r="46" spans="1:9">
+      <c r="G46" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="24" t="s">
+      <c r="H46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="G45" s="21" t="s">
+    <row r="47" spans="1:9">
+      <c r="G47" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="25" t="s">
+      <c r="H47" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+    <row r="48" spans="1:9">
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J13:K15"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo244965\Downloads\proyecto\IPS\CentroDeportivo\DDBB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carla\Documents\Git\Temp\ips\IPS\CentroDeportivo\DDBB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>HORA_SALIDA</t>
+  </si>
+  <si>
+    <t>FECHA_BAJA</t>
   </si>
 </sst>
 </file>
@@ -426,6 +429,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,18 +465,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,32 +742,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:11">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="G5" s="27" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="G5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -919,10 +922,10 @@
       <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11">
       <c r="G14" s="12" t="s">
@@ -934,8 +937,8 @@
       <c r="I14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11">
       <c r="G15" s="14" t="s">
@@ -947,27 +950,27 @@
       <c r="I15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="G17" s="39" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="G17" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -995,11 +998,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1058,11 +1061,11 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" t="s">
@@ -1077,11 +1080,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1197,11 +1200,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1265,11 +1268,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1279,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="F39" s="40"/>
+      <c r="F39" s="29"/>
       <c r="H39" s="19" t="s">
         <v>29</v>
       </c>
@@ -1316,10 +1319,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="38" t="s">
+      <c r="I41" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J41" s="22"/>
@@ -1337,13 +1340,14 @@
       <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="23"/>
@@ -1351,11 +1355,19 @@
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1">
-      <c r="H44" s="30" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="H44" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10">
       <c r="H45" s="19" t="s">
@@ -1392,16 +1404,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J13:K15"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo244965\Downloads\proyecto\IPS\CentroDeportivo\DDBB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nacho\Documents\GitHub\IPS\IPS\CentroDeportivo\DDBB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10200"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -211,18 +211,28 @@
   </si>
   <si>
     <t>HORA_SALIDA</t>
+  </si>
+  <si>
+    <t>FECHA_BAJA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,6 +270,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -394,11 +410,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -407,25 +499,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,19 +528,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -459,9 +552,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,32 +839,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:11">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="G5" s="27" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="G5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -919,10 +1019,10 @@
       <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11">
       <c r="G14" s="12" t="s">
@@ -931,11 +1031,11 @@
       <c r="H14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11">
       <c r="G15" s="14" t="s">
@@ -944,34 +1044,34 @@
       <c r="H15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
-      <c r="G16" s="39" t="s">
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1">
+      <c r="G16" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B17" s="27" t="s">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="B17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="G17" s="39" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="G17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -985,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
@@ -995,11 +1095,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1038,7 +1138,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="B22" s="16" t="s">
         <v>40</v>
       </c>
@@ -1056,15 +1156,15 @@
       </c>
       <c r="J22" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B25" s="27" t="s">
+    <row r="24" spans="1:10" ht="15" thickBot="1"/>
+    <row r="25" spans="1:10" ht="15" thickBot="1">
+      <c r="B25" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1077,11 +1177,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1158,7 +1258,7 @@
       </c>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="B31" s="16" t="s">
         <v>48</v>
       </c>
@@ -1185,23 +1285,23 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1">
+    <row r="33" spans="1:10" ht="15" thickBot="1">
       <c r="H33" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B34" s="27" t="s">
+    <row r="34" spans="1:10" ht="15" thickBot="1">
+      <c r="B34" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1212,7 +1312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1">
+    <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1244,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1">
+    <row r="37" spans="1:10" ht="15" thickBot="1">
       <c r="B37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
@@ -1265,11 +1365,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1279,18 +1379,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="F39" s="40"/>
+      <c r="F39" s="27"/>
       <c r="H39" s="19" t="s">
         <v>29</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="J39" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1">
+    <row r="40" spans="1:10">
       <c r="B40" s="5" t="s">
         <v>56</v>
       </c>
@@ -1298,17 +1398,17 @@
         <v>8</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="25" t="s">
+      <c r="I40" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="15" thickBot="1">
       <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
@@ -1316,13 +1416,13 @@
         <v>8</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="38" t="s">
+      <c r="I41" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="22"/>
+      <c r="J41" s="44"/>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="5" t="s">
@@ -1332,11 +1432,11 @@
         <v>8</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="B43" s="16" t="s">
         <v>60</v>
       </c>
@@ -1346,16 +1446,22 @@
       <c r="D43" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1">
-      <c r="H44" s="30" t="s">
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickBot="1">
+      <c r="B44" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10">
       <c r="H45" s="19" t="s">
@@ -1364,7 +1470,7 @@
       <c r="I45" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="J45" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1375,33 +1481,33 @@
       <c r="I46" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1">
+    <row r="47" spans="1:10" ht="15" thickBot="1">
       <c r="H47" s="21" t="s">
         <v>19</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="24" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J13:K15"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -519,6 +519,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,13 +535,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,16 +562,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -855,16 +855,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:11">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="G5" s="28" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="G5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -1019,10 +1019,10 @@
       <c r="I13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="35"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="1:11">
       <c r="G14" s="12" t="s">
@@ -1034,8 +1034,8 @@
       <c r="I14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11">
       <c r="G15" s="14" t="s">
@@ -1047,8 +1047,8 @@
       <c r="I15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="G16" s="26" t="s">
@@ -1059,11 +1059,11 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="G17" s="26" t="s">
         <v>63</v>
       </c>
@@ -1095,11 +1095,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1158,11 +1158,11 @@
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1"/>
     <row r="25" spans="1:10" ht="15" thickBot="1">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" t="s">
@@ -1177,11 +1177,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1297,11 +1297,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1365,11 +1365,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1398,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="41" t="s">
+      <c r="I40" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1416,13 +1416,13 @@
         <v>8</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="44"/>
+      <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="5" t="s">
@@ -1451,17 +1451,17 @@
       <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1">
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10">
       <c r="H45" s="19" t="s">

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="66">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>FECHA_BAJA</t>
+  </si>
+  <si>
+    <t>FECHA_ACTIVIDAD</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -562,6 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1025,6 +1029,12 @@
       <c r="K13" s="43"/>
     </row>
     <row r="14" spans="1:11">
+      <c r="B14" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="12" t="s">
         <v>32</v>
       </c>

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -217,18 +217,37 @@
   </si>
   <si>
     <t>FECHA_ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>HORAS_ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>RESERVA_ID</t>
+  </si>
+  <si>
+    <t>usario_id de reservas null== de administracion</t>
+  </si>
+  <si>
+    <t>HORAS_ACTIVIDAD_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,16 +298,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -413,87 +445,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -502,33 +458,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,22 +485,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,7 +506,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,34 +818,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:K47"/>
+  <dimension ref="A4:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11">
-      <c r="B5" s="44" t="s">
+    <row r="4" spans="1:11" ht="15" thickBot="1"/>
+    <row r="5" spans="1:11" ht="15" thickBot="1">
+      <c r="B5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="G5" s="35" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="G5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -1007,79 +985,82 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="G13" s="5" t="s">
+      <c r="D13" s="7"/>
+      <c r="G13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="43"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="47" t="s">
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="B14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="D14" s="11"/>
+      <c r="G14" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="H14" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1">
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="36" t="s">
         <v>10</v>
       </c>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="G17" s="26" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="G17" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="40" t="s">
         <v>10</v>
       </c>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" t="s">
@@ -1105,11 +1086,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1149,30 +1130,30 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1"/>
     <row r="25" spans="1:10" ht="15" thickBot="1">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" t="s">
@@ -1187,11 +1168,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1269,10 +1250,10 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -1296,22 +1277,22 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1">
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1326,13 +1307,13 @@
       <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="9" t="s">
@@ -1375,11 +1356,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1389,14 +1370,17 @@
         <v>8</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="F39" s="27"/>
-      <c r="H39" s="19" t="s">
+      <c r="F39" s="24"/>
+      <c r="G39" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="25" t="s">
+      <c r="I39" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1408,17 +1392,18 @@
         <v>8</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="H40" s="28" t="s">
+      <c r="G40" s="47"/>
+      <c r="H40" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="30" t="s">
+      <c r="I40" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="59" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1">
+    <row r="41" spans="1:10">
       <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
@@ -1426,15 +1411,15 @@
         <v>8</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="33"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="J41" s="38"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -1442,72 +1427,175 @@
         <v>8</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="G42" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="D43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="D44" s="11"/>
+      <c r="H44" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="H45" s="19" t="s">
+      <c r="G45" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="25" t="s">
+      <c r="I45" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="H46" s="18" t="s">
+      <c r="G46" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="23" t="s">
+      <c r="I46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" thickBot="1">
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="24" t="s">
+      <c r="I47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="22" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="48" spans="1:10" ht="15" thickBot="1">
+      <c r="B48" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="49"/>
+      <c r="D48" s="50"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="47"/>
+      <c r="B49" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="47"/>
+      <c r="B51" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="53"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="53"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="53"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1">
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="56"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="H44:J44"/>

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nacho\Documents\GitHub\IPS\IPS\CentroDeportivo\DDBB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carla\Documents\Git\Temp\ips\IPS\CentroDeportivo\DDBB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -229,13 +229,16 @@
   </si>
   <si>
     <t>HORAS_ACTIVIDAD_ID</t>
+  </si>
+  <si>
+    <t>Se mueve a horas_actividad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,8 +308,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,8 +336,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -445,11 +474,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -475,27 +544,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,12 +580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,28 +589,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,33 +905,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" ht="15" thickBot="1"/>
-    <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="B5" s="33" t="s">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="G5" s="33" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="G5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -909,13 +994,12 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7"/>
       <c r="E9" t="s">
         <v>15</v>
       </c>
@@ -930,13 +1014,15 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="74" t="s">
+        <v>70</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
@@ -948,13 +1034,13 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="69"/>
       <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
@@ -964,13 +1050,13 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -985,84 +1071,84 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="G13" s="37" t="s">
+      <c r="D13" s="61"/>
+      <c r="G13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="38" t="s">
+      <c r="H13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
-      <c r="B14" s="9" t="s">
+      <c r="K13" s="55"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B14" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="G14" s="57" t="s">
+      <c r="D14" s="64"/>
+      <c r="G14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="59" t="s">
+      <c r="H14" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="59" t="s">
+      <c r="H15" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
-      <c r="G16" s="37" t="s">
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+      <c r="G16" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="B17" s="26" t="s">
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B17" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="G17" s="39" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="G17" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1086,11 +1172,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1129,7 +1215,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="B22" s="14" t="s">
         <v>40</v>
       </c>
@@ -1147,15 +1233,15 @@
       </c>
       <c r="J22" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1"/>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
-      <c r="B25" s="26" t="s">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B25" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1168,11 +1254,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1249,7 +1335,7 @@
       </c>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="B31" s="14" t="s">
         <v>48</v>
       </c>
@@ -1276,7 +1362,7 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1">
       <c r="H33" s="16" t="s">
         <v>49</v>
       </c>
@@ -1287,12 +1373,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1">
-      <c r="B34" s="33" t="s">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B34" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1335,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1">
       <c r="B37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
@@ -1356,11 +1442,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1371,7 +1457,7 @@
       </c>
       <c r="D39" s="7"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="47" t="s">
+      <c r="G39" s="33" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="17" t="s">
@@ -1392,14 +1478,14 @@
         <v>8</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="57" t="s">
+      <c r="G40" s="33"/>
+      <c r="H40" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="59" t="s">
+      <c r="I40" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="41" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1411,15 +1497,15 @@
         <v>8</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="38"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1">
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -1427,18 +1513,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="60"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1">
+      <c r="I42" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="42"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="B43" s="5" t="s">
         <v>60</v>
       </c>
@@ -1452,22 +1538,22 @@
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1">
-      <c r="B44" s="45" t="s">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B44" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="G45" s="47" t="s">
+      <c r="G45" s="33" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="17" t="s">
@@ -1481,7 +1567,7 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="33" t="s">
         <v>2</v>
       </c>
       <c r="H46" s="16" t="s">
@@ -1494,7 +1580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="H47" s="19" t="s">
         <v>19</v>
       </c>
@@ -1505,107 +1591,121 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1">
-      <c r="B48" s="48" t="s">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B48" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="50"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="47"/>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="53" t="s">
+      <c r="C49" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="53" t="s">
+      <c r="C50" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="47"/>
-      <c r="B51" s="51" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="53" t="s">
+      <c r="C51" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="53"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="53" t="s">
+      <c r="C53" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="53"/>
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
+      <c r="B55" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1">
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="56"/>
+      <c r="A56" s="75"/>
+      <c r="D56" s="75"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B57" s="70"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J13:K15"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J13:K15"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carla\Documents\Git\Temp\ips\IPS\CentroDeportivo\DDBB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo244965\Downloads\IPS\CentroDeportivo\DDBB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -114,9 +114,6 @@
     <t>FK USUARIO(ID)</t>
   </si>
   <si>
-    <t>Dos deberan estar a null</t>
-  </si>
-  <si>
     <t>ACTIVIDAD_ID</t>
   </si>
   <si>
@@ -225,25 +222,35 @@
     <t>RESERVA_ID</t>
   </si>
   <si>
-    <t>usario_id de reservas null== de administracion</t>
-  </si>
-  <si>
     <t>HORAS_ACTIVIDAD_ID</t>
   </si>
   <si>
     <t>Se mueve a horas_actividad</t>
+  </si>
+  <si>
+    <t>No se eliminan, pero deberan estar a null</t>
+  </si>
+  <si>
+    <t>Cancelada se mira en reserva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -527,50 +540,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,27 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,24 +611,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,11 +922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -918,27 +935,28 @@
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="G5" s="46" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="G5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -994,11 +1012,14 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="52" t="s">
         <v>14</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1014,14 +1035,14 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>70</v>
+      <c r="D10" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>19</v>
@@ -1034,15 +1055,15 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="53"/>
       <c r="G11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>8</v>
@@ -1050,13 +1071,13 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="61" t="s">
+      <c r="C12" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1071,13 +1092,13 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="45"/>
       <c r="G13" s="26" t="s">
         <v>29</v>
       </c>
@@ -1087,61 +1108,61 @@
       <c r="I13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="55" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B14" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="G14" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="55"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B14" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="G14" s="39" t="s">
+      <c r="H14" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="41" t="s">
+      <c r="J14" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="76"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="G15" s="39" t="s">
+      <c r="H15" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="G16" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="27"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B17" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="G17" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>10</v>
@@ -1172,11 +1193,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
+      <c r="H19" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1201,7 +1222,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>22</v>
@@ -1217,7 +1238,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="B22" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>24</v>
@@ -1226,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>8</v>
@@ -1235,11 +1256,11 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B25" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" t="s">
@@ -1254,15 +1275,15 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
+      <c r="H26" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>8</v>
@@ -1283,10 +1304,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D28" s="7"/>
       <c r="H28" s="5" t="s">
@@ -1301,7 +1322,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>22</v>
@@ -1319,7 +1340,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>8</v>
@@ -1337,7 +1358,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="B31" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>8</v>
@@ -1364,21 +1385,21 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1">
       <c r="H33" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B34" s="61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B34" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1412,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
@@ -1412,7 +1433,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="B36" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>8</v>
@@ -1434,7 +1455,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>8</v>
@@ -1442,15 +1463,15 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
+      <c r="H38" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="71"/>
+      <c r="J38" s="72"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>8</v>
@@ -1472,7 +1493,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>8</v>
@@ -1480,25 +1501,25 @@
       <c r="D40" s="7"/>
       <c r="G40" s="33"/>
       <c r="H40" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="41" t="s">
         <v>32</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="7"/>
       <c r="H41" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" s="25" t="s">
         <v>24</v>
@@ -1507,7 +1528,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
       <c r="B42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>8</v>
@@ -1517,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I42" s="38" t="s">
         <v>4</v>
@@ -1526,7 +1547,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="B43" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>24</v>
@@ -1540,17 +1561,17 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1">
       <c r="B44" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="H44" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" s="53"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="74"/>
+      <c r="J44" s="75"/>
     </row>
     <row r="45" spans="1:10">
       <c r="G45" s="33" t="s">
@@ -1571,13 +1592,13 @@
         <v>2</v>
       </c>
       <c r="H46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1">
@@ -1592,22 +1613,22 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B48" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45"/>
+      <c r="B48" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="33"/>
       <c r="B49" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="36" t="s">
         <v>32</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1622,27 +1643,25 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="33"/>
+      <c r="A51" s="77" t="s">
+        <v>2</v>
+      </c>
       <c r="B51" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>68</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>24</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C52" s="35"/>
       <c r="D52" s="36"/>
     </row>
     <row r="53" spans="1:5">
@@ -1660,11 +1679,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
       <c r="B54" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>10</v>
@@ -1674,10 +1690,10 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="50" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="36" t="s">
@@ -1685,27 +1701,33 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="75"/>
-      <c r="D56" s="75"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="59"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B57" s="70"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="76"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J14:K16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J13:K15"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="73">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Cancelada se mira en reserva</t>
+  </si>
+  <si>
+    <t>fECHA_ACTIVIDAD_FIN</t>
+  </si>
+  <si>
+    <t>FECHA_ACTIVIDAD_INICIO</t>
   </si>
 </sst>
 </file>
@@ -362,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -484,26 +490,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,22 +502,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -586,13 +561,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,10 +617,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -940,16 +912,16 @@
   <sheetData>
     <row r="4" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="G5" s="61" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="G5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -1018,7 +990,7 @@
       <c r="C9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>68</v>
       </c>
       <c r="E9" t="s">
@@ -1041,7 +1013,7 @@
       <c r="C10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="56" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1055,10 +1027,10 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="55" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="53"/>
@@ -1117,32 +1089,32 @@
         <v>10</v>
       </c>
       <c r="D14" s="48"/>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="80" t="s">
+      <c r="H14" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="76"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="80" t="s">
+      <c r="H15" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="G16" s="26" t="s">
@@ -1152,15 +1124,15 @@
         <v>10</v>
       </c>
       <c r="I16" s="27"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
       <c r="G17" s="28" t="s">
         <v>62</v>
       </c>
@@ -1193,11 +1165,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1256,11 +1228,11 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" t="s">
@@ -1275,11 +1247,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1395,11 +1367,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1463,11 +1435,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="H38" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="73"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1567,11 +1539,11 @@
         <v>44</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="H44" s="73" t="s">
+      <c r="H44" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="74"/>
-      <c r="J44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="76"/>
     </row>
     <row r="45" spans="1:10">
       <c r="G45" s="33" t="s">
@@ -1613,11 +1585,11 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="70"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="33"/>
@@ -1643,7 +1615,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="34" t="s">
@@ -1680,7 +1652,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="B54" s="34" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>10</v>
@@ -1701,19 +1673,25 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="59"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="59"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="60"/>
+      <c r="D56" s="57"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -213,9 +213,6 @@
     <t>FECHA_BAJA</t>
   </si>
   <si>
-    <t>FECHA_ACTIVIDAD</t>
-  </si>
-  <si>
     <t>HORAS_ACTIVIDAD</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>HORAS_ACTIVIDAD_ID</t>
   </si>
   <si>
-    <t>Se mueve a horas_actividad</t>
-  </si>
-  <si>
     <t>No se eliminan, pero deberan estar a null</t>
   </si>
   <si>
@@ -238,18 +232,31 @@
   </si>
   <si>
     <t>FECHA_ACTIVIDAD_INICIO</t>
+  </si>
+  <si>
+    <t>CANCELADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOLEAN </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,24 +343,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -506,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -515,60 +510,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,6 +550,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,36 +581,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -912,16 +910,16 @@
   <sheetData>
     <row r="4" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="G5" s="62" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="G5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -984,15 +982,9 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>68</v>
-      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="68"/>
       <c r="E9" t="s">
         <v>15</v>
       </c>
@@ -1007,15 +999,9 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>68</v>
-      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="68"/>
       <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1027,13 +1013,9 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="53"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="G11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1043,15 +1025,9 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
       <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1064,13 +1040,9 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="45"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
       <c r="G13" s="26" t="s">
         <v>29</v>
       </c>
@@ -1082,39 +1054,35 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B14" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="G14" s="59" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="G14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="61" t="s">
+      <c r="H14" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="77"/>
+      <c r="J14" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="61" t="s">
+      <c r="H15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="G16" s="26" t="s">
@@ -1124,15 +1092,15 @@
         <v>10</v>
       </c>
       <c r="I16" s="27"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="G17" s="28" t="s">
         <v>62</v>
       </c>
@@ -1165,11 +1133,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1228,11 +1196,11 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" t="s">
@@ -1247,11 +1215,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1367,11 +1335,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1435,11 +1403,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="71" t="s">
+      <c r="H38" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="72"/>
-      <c r="J38" s="73"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1472,15 +1440,13 @@
       </c>
       <c r="D40" s="7"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>32</v>
-      </c>
+      <c r="H40" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="78"/>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="5" t="s">
@@ -1509,13 +1475,13 @@
       <c r="G42" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="42"/>
+      <c r="H42" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="34"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="B43" s="5" t="s">
@@ -1539,11 +1505,11 @@
         <v>44</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="H44" s="74" t="s">
+      <c r="H44" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="75"/>
-      <c r="J44" s="76"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10">
       <c r="G45" s="33" t="s">
@@ -1585,127 +1551,127 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B48" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
+      <c r="B48" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="33"/>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="36" t="s">
+      <c r="C49" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="36" t="s">
+      <c r="B51" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="55" t="s">
         <v>49</v>
       </c>
       <c r="E51" s="33"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="B52" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
+      <c r="B52" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="55"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="36" t="s">
+      <c r="C53" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="B54" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="35" t="s">
+      <c r="B54" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="57"/>
-      <c r="B56" s="49" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="57"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="35" t="s">
+      <c r="D56" s="55"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B57" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="63" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J14:K16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J14:K16"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo244965\Downloads\IPS\CentroDeportivo\DDBB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nacho\Documents\GitHub\IPS\IPS\CentroDeportivo\DDBB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -243,13 +243,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -488,20 +502,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -510,38 +515,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,25 +589,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -581,40 +619,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,34 +899,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B5" s="40" t="s">
+    <row r="4" spans="1:11" ht="15" thickBot="1"/>
+    <row r="5" spans="1:11" ht="15" thickBot="1">
+      <c r="B5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="G5" s="40" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="G5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -982,9 +989,9 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="67"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="68"/>
+      <c r="D9" s="51"/>
       <c r="E9" t="s">
         <v>15</v>
       </c>
@@ -999,9 +1006,9 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="67"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="68"/>
+      <c r="D10" s="51"/>
       <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1013,9 +1020,9 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="G11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1025,9 +1032,9 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1040,9 +1047,9 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
       <c r="G13" s="26" t="s">
         <v>29</v>
       </c>
@@ -1053,38 +1060,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="G14" s="37" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="G14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="39" t="s">
+      <c r="H14" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="49"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="G16" s="26" t="s">
         <v>61</v>
       </c>
@@ -1092,15 +1099,15 @@
         <v>10</v>
       </c>
       <c r="I16" s="27"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B17" s="50" t="s">
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="B17" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
       <c r="G17" s="28" t="s">
         <v>62</v>
       </c>
@@ -1109,7 +1116,7 @@
       </c>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1133,11 +1140,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1176,7 +1183,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="B22" s="14" t="s">
         <v>39</v>
       </c>
@@ -1194,15 +1201,15 @@
       </c>
       <c r="J22" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B25" s="50" t="s">
+    <row r="24" spans="1:10" ht="15" thickBot="1"/>
+    <row r="25" spans="1:10" ht="15" thickBot="1">
+      <c r="B25" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1215,11 +1222,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="71"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1296,7 +1303,7 @@
       </c>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
@@ -1323,7 +1330,7 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1">
+    <row r="33" spans="1:10" ht="15" thickBot="1">
       <c r="H33" s="16" t="s">
         <v>48</v>
       </c>
@@ -1334,12 +1341,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B34" s="40" t="s">
+    <row r="34" spans="1:10" ht="15" thickBot="1">
+      <c r="B34" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1">
+    <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1">
+    <row r="37" spans="1:10" ht="15" thickBot="1">
       <c r="B37" s="5" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="B38" s="5" t="s">
         <v>37</v>
       </c>
@@ -1403,11 +1410,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="74"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1440,13 +1447,13 @@
       </c>
       <c r="D40" s="7"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="80" t="s">
+      <c r="I40" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="78"/>
+      <c r="J40" s="61"/>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="5" t="s">
@@ -1464,7 +1471,7 @@
       </c>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1">
+    <row r="42" spans="1:10" ht="15" thickBot="1">
       <c r="B42" s="5" t="s">
         <v>57</v>
       </c>
@@ -1475,15 +1482,15 @@
       <c r="G42" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="61" t="s">
+      <c r="H42" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="48" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="34"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+    <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
@@ -1497,7 +1504,7 @@
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1">
+    <row r="44" spans="1:10" ht="15" thickBot="1">
       <c r="B44" s="31" t="s">
         <v>63</v>
       </c>
@@ -1505,11 +1512,11 @@
         <v>44</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="47"/>
-      <c r="J44" s="48"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="77"/>
     </row>
     <row r="45" spans="1:10">
       <c r="G45" s="33" t="s">
@@ -1539,7 +1546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1">
+    <row r="47" spans="1:10" ht="15" thickBot="1">
       <c r="H47" s="19" t="s">
         <v>19</v>
       </c>
@@ -1550,112 +1557,112 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B48" s="64" t="s">
+    <row r="48" spans="1:10" ht="15" thickBot="1">
+      <c r="B48" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="33"/>
-      <c r="B49" s="58" t="s">
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="60" t="s">
+      <c r="C50" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="53" t="s">
+    <row r="51" spans="1:8">
+      <c r="B51" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="55" t="s">
+      <c r="C51" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="36" t="s">
+      <c r="E51" s="33"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B52" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="55" t="s">
+      <c r="C52" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="33"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="53" t="s">
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="53" t="s">
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="56" t="s">
+      <c r="D54" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6"/>
+      <c r="B56" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="41"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1">
+      <c r="B57" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C57" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="35"/>
-      <c r="B56" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="55"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B57" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="49" t="s">
         <v>5</v>
       </c>
     </row>

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -244,12 +244,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -515,71 +522,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,27 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,9 +598,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="F32" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -917,16 +925,16 @@
   <sheetData>
     <row r="4" spans="1:11" ht="15" thickBot="1"/>
     <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="G5" s="69" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="G5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -989,9 +997,9 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="50"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="50"/>
       <c r="E9" t="s">
         <v>15</v>
       </c>
@@ -1006,9 +1014,9 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="50"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="51"/>
+      <c r="D10" s="50"/>
       <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1020,9 +1028,9 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
       <c r="G11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1032,9 +1040,9 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1047,9 +1055,9 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="G13" s="26" t="s">
         <v>29</v>
       </c>
@@ -1061,9 +1069,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
       <c r="G14" s="36" t="s">
         <v>31</v>
       </c>
@@ -1073,10 +1081,10 @@
       <c r="I14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J14" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="78"/>
+      <c r="K14" s="81"/>
     </row>
     <row r="15" spans="1:11">
       <c r="G15" s="36" t="s">
@@ -1088,8 +1096,8 @@
       <c r="I15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="G16" s="26" t="s">
@@ -1099,15 +1107,15 @@
         <v>10</v>
       </c>
       <c r="I16" s="27"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
       <c r="G17" s="28" t="s">
         <v>62</v>
       </c>
@@ -1140,11 +1148,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="79" t="s">
+      <c r="H19" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1203,11 +1211,11 @@
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1"/>
     <row r="25" spans="1:10" ht="15" thickBot="1">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" t="s">
@@ -1222,11 +1230,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="71"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1342,11 +1350,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1">
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1410,11 +1418,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="73"/>
-      <c r="J38" s="74"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1447,13 +1455,13 @@
       </c>
       <c r="D40" s="7"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="63" t="s">
+      <c r="I40" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="61"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="1:10">
       <c r="B41" s="5" t="s">
@@ -1482,10 +1490,10 @@
       <c r="G42" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="H42" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="47" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="34"/>
@@ -1512,11 +1520,11 @@
         <v>44</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="H44" s="75" t="s">
+      <c r="H44" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="76"/>
-      <c r="J44" s="77"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="80"/>
     </row>
     <row r="45" spans="1:10">
       <c r="G45" s="33" t="s">
@@ -1558,11 +1566,11 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1">
-      <c r="B48" s="82" t="s">
+      <c r="B48" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="74"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="33" t="s">
@@ -1579,7 +1587,7 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C50" s="40" t="s">
@@ -1624,7 +1632,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="83" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="40" t="s">
@@ -1656,29 +1664,29 @@
       <c r="D56" s="41"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1">
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="48" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J14:K16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J14:K16"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
+++ b/CentroDeportivo/DDBB/IPS BD RELACIONAL.xlsx
@@ -244,12 +244,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -522,64 +529,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,6 +606,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,37 +637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -907,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F32" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -925,16 +933,16 @@
   <sheetData>
     <row r="4" spans="1:11" ht="15" thickBot="1"/>
     <row r="5" spans="1:11" ht="15" thickBot="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="G5" s="66" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="G5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -1081,10 +1089,10 @@
       <c r="I14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="81" t="s">
+      <c r="J14" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="81"/>
+      <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11">
       <c r="G15" s="36" t="s">
@@ -1096,8 +1104,8 @@
       <c r="I15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="G16" s="26" t="s">
@@ -1107,15 +1115,15 @@
         <v>10</v>
       </c>
       <c r="I16" s="27"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="G17" s="28" t="s">
         <v>62</v>
       </c>
@@ -1148,11 +1156,11 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="5" t="s">
@@ -1211,11 +1219,11 @@
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1"/>
     <row r="25" spans="1:10" ht="15" thickBot="1">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" t="s">
@@ -1230,11 +1238,11 @@
       <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="5" t="s">
@@ -1350,11 +1358,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1">
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
       <c r="H34" s="5" t="s">
         <v>25</v>
       </c>
@@ -1418,11 +1426,11 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="75" t="s">
+      <c r="H38" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="76"/>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="5" t="s">
@@ -1490,7 +1498,7 @@
       <c r="G42" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="82" t="s">
+      <c r="H42" s="66" t="s">
         <v>66</v>
       </c>
       <c r="I42" s="47" t="s">
@@ -1520,11 +1528,11 @@
         <v>44</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="H44" s="78" t="s">
+      <c r="H44" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="79"/>
-      <c r="J44" s="80"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="79"/>
     </row>
     <row r="45" spans="1:10">
       <c r="G45" s="33" t="s">
@@ -1566,11 +1574,11 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" thickBot="1">
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="74"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="70"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="33" t="s">
@@ -1613,7 +1621,7 @@
       <c r="A52" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="84" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="40" t="s">
@@ -1632,7 +1640,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="67" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="40" t="s">
@@ -1676,17 +1684,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="J14:K16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J14:K16"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
